--- a/biology/Médecine/Robocath/Robocath.xlsx
+++ b/biology/Médecine/Robocath/Robocath.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Robocath est une société qui conçoit, développe et commercialise des solutions d'assistance robotique dédiées au traitement des maladies cardiovasculaires. Elle a été fondée à Rouen en 2009.
@@ -512,14 +524,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les développements de l'entreprise visent à augmenter le geste réalisé grâce à des technologies précises et complémentaires des méthodes interventionnelles actuelles.
-Le premier robot médical développé par Robocath, R-One, intègre une technologie permettant de sécuriser et d'optimiser l'angioplastie coronaire au moyen de l'assistance robotique[1]. Cette procédure médicale consiste à revasculariser le muscle cardiaque, grâce à l'implantation d'un ou plusieurs implants (stents) dans les artères qui l'irriguent.
-Le dispositif a obtenu le marquage CE en février 2019[2] et son application clinique a débuté en septembre 2019.
-En 2020, Robocath a réalisé une levée de fonds de 40 000 000 €[3], dans l'optique d'assurer son plan de développement. Dans le cadre de ce dernier, l'entreprise a annoncé, en novembre, la création d'une joint-venture avec la société chinoise MicroPort[4].
-En janvier 2021, Robocath annonce la première angioplastie à distance d'Europe, réalisée entre Rouen et Caen[5]. En novembre 2021, l'entreprise indique avoir effectué la première opération avec R-One au niveau de l'artère carotide interne[6]. Elle a démontré, en parallèle, une étude clinique l'efficacité et la sécurité de R-One, dont elle a présenté les résultats en mai 2022[7].
-La solution robotisée de Robocath est aujourd'hui présente en Europe[8],[9], en Afrique[10] et en Chine[11].
+Le premier robot médical développé par Robocath, R-One, intègre une technologie permettant de sécuriser et d'optimiser l'angioplastie coronaire au moyen de l'assistance robotique. Cette procédure médicale consiste à revasculariser le muscle cardiaque, grâce à l'implantation d'un ou plusieurs implants (stents) dans les artères qui l'irriguent.
+Le dispositif a obtenu le marquage CE en février 2019 et son application clinique a débuté en septembre 2019.
+En 2020, Robocath a réalisé une levée de fonds de 40 000 000 €, dans l'optique d'assurer son plan de développement. Dans le cadre de ce dernier, l'entreprise a annoncé, en novembre, la création d'une joint-venture avec la société chinoise MicroPort.
+En janvier 2021, Robocath annonce la première angioplastie à distance d'Europe, réalisée entre Rouen et Caen. En novembre 2021, l'entreprise indique avoir effectué la première opération avec R-One au niveau de l'artère carotide interne. Elle a démontré, en parallèle, une étude clinique l'efficacité et la sécurité de R-One, dont elle a présenté les résultats en mai 2022.
+La solution robotisée de Robocath est aujourd'hui présente en Europe en Afrique et en Chine.
 </t>
         </is>
       </c>
